--- a/Pmax/Old Pmax/Sample 2/Unnormalized_Pmax_Sample_2B_100kHz.xlsx
+++ b/Pmax/Old Pmax/Sample 2/Unnormalized_Pmax_Sample_2B_100kHz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,933 +436,623 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>File Name</t>
+          <t>Loc</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnormalized P_max</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Electrode Locations</t>
+          <t>P_max</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A1_bipolar_20V_100kHz.txt</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>35.369112</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A3_bipolar_20V_100kHz.txt</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>34.704656</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A5_bipolar_20V_100kHz.txt</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>33.912769</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A7_bipolar_20V_100kHz.txt</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>37.792103</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A7</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A11_bipolar_20V_100kHz.txt</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>38.101576</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A11</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A15_bipolar_20V_100kHz.txt</t>
+          <t>A15</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>46.52288</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A15</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>B9_bipolar_20V_100kHz.txt</t>
+          <t>B9</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>39.135579</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>B9</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>B14_bipolar_20V_100kHz.txt</t>
+          <t>B14</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>43.874156</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>B14</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C1_bipolar_20V_100kHz.txt</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>43.062244</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C3_bipolar_20V_100kHz.txt</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>42.117442</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C7_bipolar_20V_100kHz.txt</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>42.496091</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>C7</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C9_bipolar_20V_100kHz.txt</t>
+          <t>C9</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>38.292721</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>C9</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C11_bipolar_20V_100kHz.txt</t>
+          <t>C11</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>39.246626</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>C11</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C13_bipolar_20V_100kHz.txt</t>
+          <t>C13</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>43.289798</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>C13</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D5_bipolar_20V_100kHz.txt</t>
+          <t>D5</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>41.256379</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>D5</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>E2_bipolar_20V_100kHz.txt</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>41.21815</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>E2</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>E3_bipolar_20V_100kHz.txt</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>42.741849</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>E5_bipolar_20V_100kHz.txt</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>42.885663</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>E5</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>E7_bipolar_20V_100kHz.txt</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>40.650176</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>E7</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>E11_bipolar_20V_100kHz.txt</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>36.843659</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>E11</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>E15_bipolar_20V_100kHz.txt</t>
+          <t>E15</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>50.127329</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>E15</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>F2_bipolar_20V_100kHz.txt</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>41.5167</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>F2</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>F9_bipolar_20V_100kHz.txt</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>40.548232</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>F9</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>F14_bipolar_20V_100kHz.txt</t>
+          <t>F14</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>45.42152</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>F14</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>G1_bipolar_20V_100kHz.txt</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>42.588933</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>G1</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>G3_bipolar_20V_100kHz.txt</t>
+          <t>G3</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>43.091371</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>G7_bipolar_20V_100kHz.txt</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>42.452401</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>G7</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>G10_bipolar_20V_100kHz.txt</t>
+          <t>G10</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>42.517936</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>G10</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>G12_bipolar_20V_100kHz.txt</t>
+          <t>G12</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>43.508249</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>G12</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>G15_bipolar_20V_100kHz.txt</t>
+          <t>G15</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>30.301038</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>G15</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>H5_bipolar_20V_100kHz.txt</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>44.087146</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>H5</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>H13_bipolar_20V_100kHz.txt</t>
+          <t>H13</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>46.415474</v>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>H13</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>I1_bipolar_20V_100kHz.txt</t>
+          <t>I1</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>43.277055</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>I1</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>I3_bipolar_20V_100kHz.txt</t>
+          <t>I3</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>44.245523</v>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>I3</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>I5_bipolar_20V_100kHz.txt</t>
+          <t>I5</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>41.676898</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>I5</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>I7_bipolar_20V_100kHz.txt</t>
+          <t>I7</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>43.04222</v>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>I7</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>I9_bipolar_20V_100kHz.txt</t>
+          <t>I9</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>41.937219</v>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>I9</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>I11_bipolar_20V_100kHz.txt</t>
+          <t>I11</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>41.848018</v>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>I11</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>I13_bipolar_20V_100kHz.txt</t>
+          <t>I13</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>47.799</v>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>I13</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>I15_bipolar_20V_100kHz.txt</t>
+          <t>I15</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>12.493603</v>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>I15</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>K1_bipolar_20V_100kHz.txt</t>
+          <t>K1</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>46.752254</v>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>K1</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>K4_bipolar_20V_100kHz.txt</t>
+          <t>K4</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>27.748797</v>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>K4</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>K5_bipolar_20V_100kHz.txt</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>49.231678</v>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>K5</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>K7_bipolar_20V_100kHz.txt</t>
+          <t>K7</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>42.967582</v>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>K7</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>K9_bipolar_20V_100kHz.txt</t>
+          <t>K9</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>48.366974</v>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>K9</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>K15_bipolar_20V_100kHz.txt</t>
+          <t>K15</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>34.830265</v>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>K15</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>L11_bipolar_20V_100kHz.txt</t>
+          <t>L11</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>47.604214</v>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>L11</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>L14_bipolar_20V_100kHz.txt</t>
+          <t>L14</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>37.44076</v>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>L14</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>M1_bipolar_20V_100kHz.txt</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>42.963941</v>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>M3_bipolar_20V_100kHz.txt</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>45.317756</v>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>M5_bipolar_20V_100kHz.txt</t>
+          <t>M5</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>45.370548</v>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>M9_bipolar_20V_100kHz.txt</t>
+          <t>M9</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>48.177649</v>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>M9</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>M15_bipolar_20V_100kHz.txt</t>
+          <t>M15</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>56.054645</v>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>M15</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>N7_bipolar_20V_100kHz.txt</t>
+          <t>N7</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>49.045994</v>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>N7</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>N11_bipolar_20V_100kHz.txt</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>52.12616</v>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>N11</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>O3_bipolar_20V_100kHz.txt</t>
+          <t>O3</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>47.84087</v>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>O3</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>O5_bipolar_20V_100kHz.txt</t>
+          <t>O5</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>49.53933</v>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>O5</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>O7_bipolar_20V_100kHz.txt</t>
+          <t>O7</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>49.586661</v>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>O7</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>O9_bipolar_20V_100kHz.txt</t>
+          <t>O9</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>49.040533</v>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>O9</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>O12_bipolar_20V_100kHz.txt</t>
+          <t>O12</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>56.646284</v>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>O12</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>O14_bipolar_20V_100kHz.txt</t>
+          <t>O14</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>58.40846</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>O14</t>
-        </is>
       </c>
     </row>
   </sheetData>
